--- a/Crate/TC_Login/Main.rvl.xlsx
+++ b/Crate/TC_Login/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="59">
   <si>
     <t>Flow</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>DoScreenshot</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="209">
+  <borders count="212">
     <border>
       <left/>
       <right/>
@@ -423,11 +426,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -637,6 +643,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -700,282 +709,267 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="167"/>
+      <c r="A4" s="209"/>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="169"/>
+      <c r="A5" s="167"/>
       <c r="B5" t="s">
         <v>23</v>
       </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="210"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="169"/>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="211"/>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="168"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+    <row r="9">
+      <c r="A9" s="168"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="165"/>
-      <c r="B11" t="s">
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="165"/>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="164"/>
-      <c r="B12" t="s">
+    <row r="15">
+      <c r="A15" s="164"/>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="163"/>
-      <c r="B13" t="s">
+    <row r="16">
+      <c r="A16" s="163"/>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="162"/>
-      <c r="B14" t="s">
+    <row r="17">
+      <c r="A17" s="162"/>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="208"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="176" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="195" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="208"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="176" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -991,313 +985,382 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="194" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="200"/>
+      <c r="A21" s="195" t="s">
+        <v>7</v>
+      </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="201"/>
+      <c r="A22" s="196" t="s">
+        <v>7</v>
+      </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="197" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="200"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="201"/>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E26" t="s">
         <v>51</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="27">
+      <c r="A27" s="205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="202"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="203"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="198" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="202"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="203"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="199" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="73"/>
-      <c r="B29" s="74" t="s">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C32" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D32" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="80"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="E32" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="80"/>
     </row>
     <row r="33">
-      <c r="A33" s="105"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
     </row>
     <row r="34">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="120"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="96"/>
     </row>
     <row r="35">
-      <c r="A35" s="121"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="128"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36">
-      <c r="A36" s="129"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="112"/>
     </row>
     <row r="37">
-      <c r="A37" s="137"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="144"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="120"/>
     </row>
     <row r="38">
-      <c r="A38" s="145"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="152"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
     </row>
     <row r="39">
-      <c r="A39" s="153"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="160"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="136"/>
     </row>
     <row r="40">
-      <c r="A40" s="184"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="144"/>
     </row>
     <row r="41">
-      <c r="A41" s="185"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="152"/>
     </row>
     <row r="42">
-      <c r="A42" s="186"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="160"/>
     </row>
     <row r="43">
-      <c r="A43" s="187"/>
+      <c r="A43" s="184"/>
     </row>
     <row r="44">
-      <c r="A44" s="188"/>
+      <c r="A44" s="185"/>
     </row>
     <row r="45">
-      <c r="A45" s="189"/>
+      <c r="A45" s="186"/>
     </row>
     <row r="46">
-      <c r="A46" s="190"/>
+      <c r="A46" s="187"/>
     </row>
     <row r="47">
-      <c r="A47" s="191"/>
+      <c r="A47" s="188"/>
     </row>
     <row r="48">
-      <c r="A48" s="192"/>
+      <c r="A48" s="189"/>
     </row>
     <row r="49">
-      <c r="A49" s="193"/>
+      <c r="A49" s="190"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="191"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="192"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="193"/>
     </row>
   </sheetData>
 </worksheet>
